--- a/Buscador de temas a partir de un excel/Temas.xlsx
+++ b/Buscador de temas a partir de un excel/Temas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\python-rpa-prac\Buscador de temas a partir de un excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8070E6D-F400-4FEE-8C86-8C448A830F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7EB214-5451-4F04-9B77-73838437B320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Me llama todavia 2</t>
+    <t>La mano de dios rodrigo</t>
   </si>
   <si>
-    <t>Mira como esta la vagancia</t>
-  </si>
-  <si>
-    <t>Todo marcha mas que bien</t>
-  </si>
-  <si>
-    <t>Los vergadores</t>
+    <t>La picadura de la cobra gay</t>
   </si>
 </sst>
 </file>
@@ -354,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,17 +369,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>